--- a/Raw Data/Micro Plans/November 2025/Micro Plan - TA-418 Nov'25.xlsx
+++ b/Raw Data/Micro Plans/November 2025/Micro Plan - TA-418 Nov'25.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaushikb\Documents\Work\Git\Office-work-\Raw Data\Micro Plans\November 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2AE890-C1D2-48E0-97A4-BE29323AE2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" tabRatio="757" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="757" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FDN-June25" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Erection-Nov25'!$A$1:$O$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FDN-June25'!$A$18:$P$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -545,9 +546,6 @@
     <t>Basudev Mahato</t>
   </si>
   <si>
-    <t>Revenue Planned (In Lak)</t>
-  </si>
-  <si>
     <t>Name of the line : '765KV D/C  KOPPAL  II(PS) - RAICHUR TL  (Part-1)</t>
   </si>
   <si>
@@ -567,22 +565,25 @@
   </si>
   <si>
     <t>M/s SUFIYAN</t>
+  </si>
+  <si>
+    <t>Revenue Planned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="#,##0.000"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -1280,14 +1281,14 @@
   </borders>
   <cellStyleXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -1306,20 +1307,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1422,7 +1423,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1466,35 +1467,35 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1538,13 +1539,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1553,25 +1554,25 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1580,31 +1581,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1613,13 +1614,13 @@
     <xf numFmtId="17" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1634,7 +1635,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1649,41 +1650,41 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="17" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1711,7 +1712,7 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="8" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="18" fillId="8" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1724,7 +1725,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1748,16 +1749,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1769,16 +1770,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1790,7 +1791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1829,19 +1830,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1850,7 +1851,7 @@
     <xf numFmtId="2" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1859,7 +1860,7 @@
     <xf numFmtId="2" fontId="26" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1877,14 +1878,11 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="23" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1910,16 +1908,16 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1984,12 +1982,99 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2005,51 +2090,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2065,45 +2105,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="20" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="19" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="16" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="28" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="18" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="20" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="19" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="16" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="28" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="18" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2113,227 +2150,190 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="172">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="8"/>
-    <cellStyle name="Comma 2 2" xfId="27"/>
-    <cellStyle name="Comma 2 2 2" xfId="28"/>
-    <cellStyle name="Comma 2 2 2 2" xfId="159"/>
-    <cellStyle name="Comma 2 2 3" xfId="29"/>
-    <cellStyle name="Comma 2 2 3 2" xfId="160"/>
-    <cellStyle name="Comma 2 2 4" xfId="158"/>
-    <cellStyle name="Comma 2 3" xfId="30"/>
-    <cellStyle name="Comma 2 3 2" xfId="161"/>
-    <cellStyle name="Comma 2 4" xfId="31"/>
-    <cellStyle name="Comma 2 4 2" xfId="162"/>
-    <cellStyle name="Comma 2 5" xfId="32"/>
-    <cellStyle name="Comma 2 5 2" xfId="163"/>
-    <cellStyle name="Comma 2 6" xfId="149"/>
-    <cellStyle name="Comma 3" xfId="33"/>
-    <cellStyle name="Comma 3 2" xfId="146"/>
-    <cellStyle name="Comma 3 3" xfId="164"/>
-    <cellStyle name="Comma 4" xfId="34"/>
-    <cellStyle name="Comma 4 2" xfId="35"/>
-    <cellStyle name="Comma 4 2 2" xfId="165"/>
-    <cellStyle name="Comma 4 3" xfId="36"/>
-    <cellStyle name="Comma 4 3 2" xfId="166"/>
-    <cellStyle name="Comma 4 4" xfId="37"/>
-    <cellStyle name="Comma 4 4 2" xfId="167"/>
-    <cellStyle name="Comma 4 5" xfId="145"/>
-    <cellStyle name="Comma 4 5 2" xfId="171"/>
-    <cellStyle name="Comma 5" xfId="38"/>
-    <cellStyle name="Comma 5 2" xfId="151"/>
-    <cellStyle name="Comma 5 3" xfId="168"/>
-    <cellStyle name="Comma 6" xfId="39"/>
-    <cellStyle name="Comma 6 2" xfId="169"/>
-    <cellStyle name="Comma 8" xfId="123"/>
-    <cellStyle name="Comma 8 2" xfId="170"/>
-    <cellStyle name="Comma 9 3" xfId="40"/>
-    <cellStyle name="Excel Built-in Normal" xfId="26"/>
-    <cellStyle name="Hyperlink 2" xfId="41"/>
+    <cellStyle name="Comma 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 2 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Comma 2 2 2 2" xfId="159" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 2 2 3" xfId="29" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 2 2 3 2" xfId="160" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Comma 2 2 4" xfId="158" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Comma 2 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Comma 2 3 2" xfId="161" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Comma 2 4" xfId="31" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Comma 2 4 2" xfId="162" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Comma 2 5" xfId="32" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Comma 2 5 2" xfId="163" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Comma 2 6" xfId="149" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Comma 3" xfId="33" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Comma 3 2" xfId="146" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Comma 3 3" xfId="164" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Comma 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Comma 4 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Comma 4 2 2" xfId="165" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Comma 4 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Comma 4 3 2" xfId="166" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Comma 4 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Comma 4 4 2" xfId="167" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Comma 4 5" xfId="145" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Comma 4 5 2" xfId="171" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Comma 5" xfId="38" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Comma 5 2" xfId="151" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Comma 5 3" xfId="168" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 6" xfId="39" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 6 2" xfId="169" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 8" xfId="123" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 8 2" xfId="170" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 9 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="26" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="42"/>
-    <cellStyle name="Normal 10 2" xfId="43"/>
-    <cellStyle name="Normal 10 2 2" xfId="44"/>
-    <cellStyle name="Normal 10 2 2 2" xfId="45"/>
-    <cellStyle name="Normal 10 2 3" xfId="46"/>
-    <cellStyle name="Normal 10 3" xfId="47"/>
-    <cellStyle name="Normal 10 3 2" xfId="48"/>
-    <cellStyle name="Normal 10 4" xfId="49"/>
-    <cellStyle name="Normal 103" xfId="24"/>
-    <cellStyle name="Normal 11" xfId="5"/>
-    <cellStyle name="Normal 11 2" xfId="51"/>
-    <cellStyle name="Normal 11 2 2" xfId="52"/>
-    <cellStyle name="Normal 11 3" xfId="53"/>
-    <cellStyle name="Normal 11 4" xfId="50"/>
-    <cellStyle name="Normal 12" xfId="54"/>
-    <cellStyle name="Normal 12 2" xfId="55"/>
-    <cellStyle name="Normal 120" xfId="21"/>
-    <cellStyle name="Normal 13" xfId="56"/>
-    <cellStyle name="Normal 14" xfId="57"/>
-    <cellStyle name="Normal 14 2 2" xfId="58"/>
-    <cellStyle name="Normal 15" xfId="127"/>
-    <cellStyle name="Normal 16" xfId="128"/>
-    <cellStyle name="Normal 16 2" xfId="140"/>
-    <cellStyle name="Normal 17" xfId="10"/>
-    <cellStyle name="Normal 17 2" xfId="154"/>
-    <cellStyle name="Normal 188" xfId="12"/>
-    <cellStyle name="Normal 191" xfId="22"/>
-    <cellStyle name="Normal 192" xfId="11"/>
-    <cellStyle name="Normal 195" xfId="20"/>
-    <cellStyle name="Normal 196" xfId="15"/>
-    <cellStyle name="Normal 197" xfId="59"/>
-    <cellStyle name="Normal 2" xfId="60"/>
-    <cellStyle name="Normal 2 10" xfId="142"/>
-    <cellStyle name="Normal 2 10 2 5 2" xfId="6"/>
-    <cellStyle name="Normal 2 10 2 6" xfId="3"/>
-    <cellStyle name="Normal 2 2" xfId="9"/>
-    <cellStyle name="Normal 2 2 2" xfId="62"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="131"/>
-    <cellStyle name="Normal 2 2 3" xfId="63"/>
-    <cellStyle name="Normal 2 2 4" xfId="64"/>
-    <cellStyle name="Normal 2 2 4 2" xfId="132"/>
-    <cellStyle name="Normal 2 2 5" xfId="61"/>
-    <cellStyle name="Normal 2 3" xfId="65"/>
-    <cellStyle name="Normal 2 3 2" xfId="66"/>
-    <cellStyle name="Normal 2 3 3" xfId="67"/>
-    <cellStyle name="Normal 2 3 3 2" xfId="133"/>
-    <cellStyle name="Normal 2 3 5" xfId="155"/>
-    <cellStyle name="Normal 2 3 9" xfId="157"/>
-    <cellStyle name="Normal 2 4" xfId="68"/>
-    <cellStyle name="Normal 2 5" xfId="69"/>
-    <cellStyle name="Normal 2 5 2" xfId="70"/>
-    <cellStyle name="Normal 2 5 2 2" xfId="71"/>
-    <cellStyle name="Normal 2 5 3" xfId="72"/>
-    <cellStyle name="Normal 2 6" xfId="73"/>
-    <cellStyle name="Normal 2 6 2" xfId="134"/>
-    <cellStyle name="Normal 201 2" xfId="19"/>
-    <cellStyle name="Normal 207" xfId="14"/>
-    <cellStyle name="Normal 211" xfId="13"/>
-    <cellStyle name="Normal 218" xfId="17"/>
-    <cellStyle name="Normal 219" xfId="18"/>
-    <cellStyle name="Normal 222" xfId="16"/>
-    <cellStyle name="Normal 23 3" xfId="74"/>
-    <cellStyle name="Normal 23 3 2" xfId="75"/>
-    <cellStyle name="Normal 23 3 3" xfId="76"/>
-    <cellStyle name="Normal 3" xfId="25"/>
-    <cellStyle name="Normal 3 10" xfId="78"/>
-    <cellStyle name="Normal 3 2" xfId="79"/>
-    <cellStyle name="Normal 3 2 2" xfId="80"/>
-    <cellStyle name="Normal 3 2 3" xfId="81"/>
-    <cellStyle name="Normal 3 2 4" xfId="82"/>
-    <cellStyle name="Normal 3 2 5" xfId="152"/>
-    <cellStyle name="Normal 3 3" xfId="83"/>
-    <cellStyle name="Normal 3 4" xfId="84"/>
-    <cellStyle name="Normal 3 4 2" xfId="136"/>
-    <cellStyle name="Normal 3 5" xfId="135"/>
-    <cellStyle name="Normal 3 6" xfId="144"/>
-    <cellStyle name="Normal 3 7" xfId="77"/>
-    <cellStyle name="Normal 31 2" xfId="85"/>
-    <cellStyle name="Normal 4" xfId="86"/>
-    <cellStyle name="Normal 4 2" xfId="87"/>
-    <cellStyle name="Normal 4 2 2" xfId="88"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="125"/>
-    <cellStyle name="Normal 4 2 3" xfId="89"/>
-    <cellStyle name="Normal 4 2 4" xfId="90"/>
-    <cellStyle name="Normal 4 2 5 2" xfId="126"/>
-    <cellStyle name="Normal 4 2 6" xfId="122"/>
-    <cellStyle name="Normal 4 2 7" xfId="141"/>
-    <cellStyle name="Normal 4 3" xfId="91"/>
-    <cellStyle name="Normal 4 4" xfId="129"/>
-    <cellStyle name="Normal 4 5" xfId="150"/>
-    <cellStyle name="Normal 40" xfId="120"/>
-    <cellStyle name="Normal 42" xfId="147"/>
-    <cellStyle name="Normal 48" xfId="148"/>
-    <cellStyle name="Normal 5" xfId="23"/>
-    <cellStyle name="Normal 5 2" xfId="93"/>
-    <cellStyle name="Normal 5 2 2" xfId="94"/>
-    <cellStyle name="Normal 5 3" xfId="95"/>
-    <cellStyle name="Normal 5 4" xfId="96"/>
-    <cellStyle name="Normal 5 5" xfId="97"/>
-    <cellStyle name="Normal 5 6" xfId="156"/>
-    <cellStyle name="Normal 5 7" xfId="92"/>
-    <cellStyle name="Normal 6" xfId="98"/>
-    <cellStyle name="Normal 6 2" xfId="143"/>
-    <cellStyle name="Normal 7" xfId="99"/>
-    <cellStyle name="Normal 7 2" xfId="100"/>
-    <cellStyle name="Normal 7 3" xfId="101"/>
-    <cellStyle name="Normal 7 4" xfId="102"/>
-    <cellStyle name="Normal 7 4 2" xfId="137"/>
-    <cellStyle name="Normal 8" xfId="103"/>
-    <cellStyle name="Normal 8 2" xfId="104"/>
-    <cellStyle name="Normal 8 2 2" xfId="105"/>
-    <cellStyle name="Normal 8 3" xfId="106"/>
-    <cellStyle name="Normal 8 4" xfId="107"/>
-    <cellStyle name="Normal 8 5" xfId="108"/>
-    <cellStyle name="Normal 9" xfId="109"/>
-    <cellStyle name="Normal 9 2" xfId="138"/>
-    <cellStyle name="Normal_Rev_IPP_ BUB_ 10.04.09 2" xfId="4"/>
-    <cellStyle name="Note 4" xfId="121"/>
+    <cellStyle name="Normal 10" xfId="42" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 10 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 10 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 10 2 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 10 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 10 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 10 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 10 4" xfId="49" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 103" xfId="24" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 11" xfId="5" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 11 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 11 2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normal 11 3" xfId="53" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal 11 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Normal 12" xfId="54" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Normal 12 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Normal 120" xfId="21" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Normal 13" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Normal 14" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Normal 14 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Normal 15" xfId="127" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Normal 16" xfId="128" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Normal 16 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Normal 17" xfId="10" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Normal 17 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Normal 188" xfId="12" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Normal 191" xfId="22" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Normal 192" xfId="11" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Normal 195" xfId="20" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Normal 196" xfId="15" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Normal 197" xfId="59" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Normal 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Normal 2 10" xfId="142" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Normal 2 10 2 5 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Normal 2 10 2 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Normal 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="131" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="63" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 2 2 4" xfId="64" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 2 2 4 2" xfId="132" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 2 2 5" xfId="61" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 2 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 2 3 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 2 3 3 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 2 3 5" xfId="155" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 2 3 9" xfId="157" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 2 4" xfId="68" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 2 5" xfId="69" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 2 5 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 2 5 2 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 2 5 3" xfId="72" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 2 6" xfId="73" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 2 6 2" xfId="134" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 201 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 207" xfId="14" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 211" xfId="13" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 218" xfId="17" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 219" xfId="18" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 222" xfId="16" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 23 3" xfId="74" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 23 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 23 3 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 3 10" xfId="78" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 3 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 3 2 4" xfId="82" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 3 2 5" xfId="152" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 3 3" xfId="83" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 3 4" xfId="84" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="136" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 3 5" xfId="135" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 3 6" xfId="144" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 3 7" xfId="77" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 31 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 4" xfId="86" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normal 4 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="125" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normal 4 2 4" xfId="90" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 4 2 5 2" xfId="126" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Normal 4 2 6" xfId="122" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Normal 4 2 7" xfId="141" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Normal 4 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Normal 4 4" xfId="129" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Normal 4 5" xfId="150" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Normal 40" xfId="120" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Normal 42" xfId="147" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Normal 48" xfId="148" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Normal 5" xfId="23" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Normal 5 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Normal 5 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Normal 5 3" xfId="95" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Normal 5 4" xfId="96" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Normal 5 5" xfId="97" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Normal 5 6" xfId="156" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Normal 5 7" xfId="92" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Normal 6" xfId="98" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Normal 6 2" xfId="143" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Normal 7" xfId="99" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Normal 7 2" xfId="100" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Normal 7 3" xfId="101" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Normal 7 4" xfId="102" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Normal 7 4 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Normal 8" xfId="103" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Normal 8 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Normal 8 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Normal 8 3" xfId="106" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Normal 8 4" xfId="107" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Normal 8 5" xfId="108" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Normal 9" xfId="109" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Normal 9 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Normal_Rev_IPP_ BUB_ 10.04.09 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Note 4" xfId="121" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="7"/>
-    <cellStyle name="Percent 2 2" xfId="111"/>
-    <cellStyle name="Percent 2 2 2" xfId="112"/>
-    <cellStyle name="Percent 2 2 2 2" xfId="113"/>
-    <cellStyle name="Percent 2 2 3" xfId="114"/>
-    <cellStyle name="Percent 2 3" xfId="115"/>
-    <cellStyle name="Percent 2 3 2" xfId="116"/>
-    <cellStyle name="Percent 2 4" xfId="117"/>
-    <cellStyle name="Percent 2 5" xfId="130"/>
-    <cellStyle name="Percent 2 6" xfId="153"/>
-    <cellStyle name="Percent 2 7" xfId="110"/>
-    <cellStyle name="Percent 3" xfId="118"/>
-    <cellStyle name="Percent 3 2" xfId="139"/>
-    <cellStyle name="Percent 4" xfId="124"/>
-    <cellStyle name="TableStyleLight1" xfId="119"/>
+    <cellStyle name="Percent 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Percent 2 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Percent 2 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Percent 2 2 2 2" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Percent 2 2 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Percent 2 3" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Percent 2 3 2" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Percent 2 4" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Percent 2 5" xfId="130" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Percent 2 6" xfId="153" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Percent 2 7" xfId="110" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Percent 3" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Percent 3 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Percent 4" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="119" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
   </cellStyles>
-  <dxfs count="142">
+  <dxfs count="85">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2376,6 +2376,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2396,6 +2416,106 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2426,21 +2546,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2451,16 +2556,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2471,16 +2566,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2491,16 +2576,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2511,16 +2586,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2531,16 +2596,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2551,26 +2606,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2581,16 +2616,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2601,6 +2626,176 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2671,11 +2866,76 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color indexed="20"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="17"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2691,21 +2951,41 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color indexed="20"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor indexed="45"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color indexed="20"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2721,26 +3001,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2791,196 +3051,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color indexed="20"/>
       </font>
       <fill>
@@ -3003,6 +3073,21 @@
       <font>
         <color indexed="20"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="17"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor indexed="45"/>
@@ -3036,666 +3121,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3750,10 +3175,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4018,7 +3439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4032,38 +3453,38 @@
       <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" style="4" customWidth="1"/>
     <col min="2" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="3.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="3.109375" style="1" customWidth="1"/>
-    <col min="20" max="25" width="8.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="8.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.36328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.08984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.08984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.90625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.08984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.08984375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.54296875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="3.08984375" style="1" customWidth="1"/>
+    <col min="20" max="25" width="8.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.08984375" style="1" customWidth="1"/>
     <col min="27" max="27" width="15" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.5546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="17.109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.88671875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5546875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="17.109375" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.109375" style="1"/>
+    <col min="28" max="28" width="15.54296875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="17.08984375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.90625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6328125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15.54296875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="17.08984375" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4071,7 +3492,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -4079,11 +3500,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
@@ -4099,7 +3520,7 @@
       <c r="L4" s="82"/>
       <c r="M4" s="83"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -4110,7 +3531,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="D6" s="2" t="s">
         <v>85</v>
@@ -4121,7 +3542,7 @@
       <c r="K6" s="3"/>
       <c r="M6" s="97"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -4133,11 +3554,11 @@
       <c r="K7" s="3"/>
       <c r="M7" s="97"/>
     </row>
-    <row r="8" spans="1:13" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -4158,13 +3579,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
@@ -4188,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="D12" s="2" t="s">
         <v>25</v>
@@ -4210,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="D13" s="2" t="s">
         <v>26</v>
@@ -4232,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="D14" s="2" t="s">
         <v>27</v>
@@ -4254,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="D15" s="28" t="s">
         <v>28</v>
@@ -4276,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -4300,144 +3721,144 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="171" t="s">
+    <row r="18" spans="1:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="168" t="s">
+      <c r="C18" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="171" t="s">
+      <c r="D18" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="168" t="s">
+      <c r="E18" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="168" t="s">
+      <c r="F18" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="171" t="s">
+      <c r="G18" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="183" t="s">
+      <c r="H18" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="183"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="183"/>
-      <c r="P18" s="176" t="s">
+      <c r="I18" s="186"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="186"/>
+      <c r="L18" s="186"/>
+      <c r="M18" s="186"/>
+      <c r="N18" s="186"/>
+      <c r="O18" s="186"/>
+      <c r="P18" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="168" t="s">
+      <c r="R18" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="177" t="s">
+      <c r="T18" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="178"/>
-      <c r="V18" s="178"/>
-      <c r="W18" s="178"/>
-      <c r="X18" s="178"/>
-      <c r="Y18" s="179"/>
-      <c r="AA18" s="177" t="s">
+      <c r="U18" s="191"/>
+      <c r="V18" s="191"/>
+      <c r="W18" s="191"/>
+      <c r="X18" s="191"/>
+      <c r="Y18" s="192"/>
+      <c r="AA18" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AB18" s="178"/>
-      <c r="AC18" s="178"/>
-      <c r="AD18" s="178"/>
-      <c r="AE18" s="178"/>
-      <c r="AF18" s="179"/>
-      <c r="AG18" s="180" t="s">
+      <c r="AB18" s="191"/>
+      <c r="AC18" s="191"/>
+      <c r="AD18" s="191"/>
+      <c r="AE18" s="191"/>
+      <c r="AF18" s="192"/>
+      <c r="AG18" s="193" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="172"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="188" t="s">
+    <row r="19" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="200"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="188"/>
-      <c r="J19" s="188" t="s">
+      <c r="I19" s="185"/>
+      <c r="J19" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="188"/>
-      <c r="L19" s="188" t="s">
+      <c r="K19" s="185"/>
+      <c r="L19" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="188"/>
-      <c r="N19" s="184" t="s">
+      <c r="M19" s="185"/>
+      <c r="N19" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="O19" s="184" t="s">
+      <c r="O19" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="P19" s="176"/>
-      <c r="R19" s="182"/>
-      <c r="T19" s="174" t="s">
+      <c r="P19" s="189"/>
+      <c r="R19" s="196"/>
+      <c r="T19" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="U19" s="174" t="s">
+      <c r="U19" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="V19" s="174" t="s">
+      <c r="V19" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="W19" s="174" t="s">
+      <c r="W19" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="X19" s="174" t="s">
+      <c r="X19" s="187" t="s">
         <v>28</v>
       </c>
       <c r="Y19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AA19" s="174" t="s">
+      <c r="AA19" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="AB19" s="174" t="s">
+      <c r="AB19" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="AC19" s="174" t="s">
+      <c r="AC19" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="AD19" s="174" t="s">
+      <c r="AD19" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="AE19" s="174" t="s">
+      <c r="AE19" s="187" t="s">
         <v>28</v>
       </c>
       <c r="AF19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AG19" s="181"/>
-    </row>
-    <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="173"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="172"/>
+      <c r="AG19" s="194"/>
+    </row>
+    <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="201"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="200"/>
       <c r="H20" s="93" t="s">
         <v>10</v>
       </c>
@@ -4456,25 +3877,25 @@
       <c r="M20" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="185"/>
-      <c r="O20" s="185"/>
+      <c r="N20" s="184"/>
+      <c r="O20" s="184"/>
       <c r="P20" s="44" t="s">
         <v>50</v>
       </c>
       <c r="R20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="T20" s="175"/>
-      <c r="U20" s="175"/>
-      <c r="V20" s="175"/>
-      <c r="W20" s="175"/>
-      <c r="X20" s="175"/>
+      <c r="T20" s="188"/>
+      <c r="U20" s="188"/>
+      <c r="V20" s="188"/>
+      <c r="W20" s="188"/>
+      <c r="X20" s="188"/>
       <c r="Y20" s="19"/>
-      <c r="AA20" s="175"/>
-      <c r="AB20" s="175"/>
-      <c r="AC20" s="175"/>
-      <c r="AD20" s="175"/>
-      <c r="AE20" s="175"/>
+      <c r="AA20" s="188"/>
+      <c r="AB20" s="188"/>
+      <c r="AC20" s="188"/>
+      <c r="AD20" s="188"/>
+      <c r="AE20" s="188"/>
       <c r="AF20" s="19" t="s">
         <v>50</v>
       </c>
@@ -4482,7 +3903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="96">
         <v>1</v>
       </c>
@@ -4574,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="96">
         <v>2</v>
       </c>
@@ -4620,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="96">
         <v>3</v>
       </c>
@@ -4678,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="96">
         <v>4</v>
       </c>
@@ -4736,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="96">
         <v>5</v>
       </c>
@@ -4745,7 +4166,7 @@
       <c r="D25" s="85"/>
       <c r="E25" s="100"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="186"/>
+      <c r="G25" s="181"/>
       <c r="H25" s="98"/>
       <c r="I25" s="98"/>
       <c r="J25" s="98"/>
@@ -4794,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="96">
         <v>6</v>
       </c>
@@ -4803,7 +4224,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="101"/>
       <c r="F26" s="96"/>
-      <c r="G26" s="187"/>
+      <c r="G26" s="182"/>
       <c r="H26" s="98"/>
       <c r="I26" s="98"/>
       <c r="J26" s="98"/>
@@ -4852,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="96">
         <v>7</v>
       </c>
@@ -4910,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="96"/>
       <c r="B28" s="102"/>
       <c r="C28" s="102"/>
@@ -4966,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" ht="20.149999999999999" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="91"/>
       <c r="C29" s="92"/>
@@ -5022,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5102,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="N32" s="55" t="s">
         <v>83</v>
       </c>
@@ -5111,7 +4532,7 @@
         <v>7224.33</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" s="76"/>
       <c r="C33" s="76"/>
       <c r="D33" s="77"/>
@@ -5129,7 +4550,7 @@
         <v>7782.57</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="78"/>
       <c r="C34" s="76"/>
       <c r="D34" s="77"/>
@@ -5148,7 +4569,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A18:P28">
+  <autoFilter ref="A18:P28" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
@@ -5158,16 +4579,13 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="29">
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
     <mergeCell ref="X19:X20"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="AA18:AF18"/>
@@ -5180,162 +4598,165 @@
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="T18:Y18"/>
     <mergeCell ref="T19:T20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="118" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="4"/>
-    <cfRule type="expression" dxfId="114" priority="5" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="84" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="4"/>
+    <cfRule type="expression" dxfId="80" priority="5" stopIfTrue="1">
       <formula>AND(COUNTIF($D$28:$D$37, B21)+COUNTIF($D$16:$D$16, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="6" stopIfTrue="1">
       <formula>AND(COUNTIF($D$28:$D$65380, B21)+COUNTIF($D$1:$D$16, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="7" stopIfTrue="1">
       <formula>AND(COUNTIF($D$17:$D$65380, B21)+COUNTIF($D$1:$D$16, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="8" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$123, B21)+COUNTIF($D$142:$D$65380, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="9" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B21)+COUNTIF($D$214:$D$65380, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="10" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B21)+COUNTIF($D$214:$D$65380, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="11" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B21)+COUNTIF($D$214:$D$65380, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="12" stopIfTrue="1">
       <formula>AND(COUNTIF($D$474:$D$65380, B21)+COUNTIF($D$454:$D$455, B21)+COUNTIF($D$416:$D$417, B21)+COUNTIF($D$374:$D$377, B21)+COUNTIF($D$351:$D$352, B21)+COUNTIF($D$324:$D$325, B21)+COUNTIF($D$303:$D$303, B21)+COUNTIF($D$288:$D$289, B21)+COUNTIF($D$263:$D$263, B21)+COUNTIF($D$252:$D$253, B21)+COUNTIF($D$233:$D$234, B21)+COUNTIF($D$51:$D$218, B21)+COUNTIF($D$219:$D$220, B21)+COUNTIF($D$1:$D$50, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B27">
-    <cfRule type="duplicateValues" dxfId="106" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="105" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="102" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="20"/>
-    <cfRule type="expression" dxfId="100" priority="1251" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="68" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="20"/>
+    <cfRule type="expression" dxfId="66" priority="1251" stopIfTrue="1">
       <formula>AND(COUNTIF($C$2:$C$65291, B23)+COUNTIF(#REF!, B23)&gt;1,NOT(ISBLANK(B23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="1252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="1252" stopIfTrue="1">
       <formula>AND(COUNTIF($C$145:$C$65291, B23)+COUNTIF($C$125:$C$126, B23)+COUNTIF($C$87:$C$88, B23)+COUNTIF($C$45:$C$48, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF($B$9:$B$9, B23)+COUNTIF($C$2:$C$8, B23)&gt;1,NOT(ISBLANK(B23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27 B21 B23">
-    <cfRule type="expression" dxfId="98" priority="1248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="1248" stopIfTrue="1">
       <formula>AND(COUNTIF($C$1:$C$65282, B21)+COUNTIF(#REF!, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27 B23 B21">
-    <cfRule type="expression" dxfId="97" priority="1236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="1236" stopIfTrue="1">
       <formula>AND(COUNTIF($C$136:$C$65282, B21)+COUNTIF($C$116:$C$117, B21)+COUNTIF($C$78:$C$79, B21)+COUNTIF($C$36:$C$39, B21)+COUNTIF($C$23:$C$24, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF($C$1:$C$5, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="duplicateValues" dxfId="96" priority="1239"/>
-    <cfRule type="expression" dxfId="95" priority="1240" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="62" priority="1239"/>
+    <cfRule type="expression" dxfId="61" priority="1240" stopIfTrue="1">
       <formula>AND(COUNTIF($D$28:$D$37, B26)+COUNTIF($D$16:$D$16, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="1241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="1241" stopIfTrue="1">
       <formula>AND(COUNTIF($D$28:$D$65380, B26)+COUNTIF($D$1:$D$16, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="1242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="1242" stopIfTrue="1">
       <formula>AND(COUNTIF($D$17:$D$65380, B26)+COUNTIF($D$1:$D$16, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="1243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="1243" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$123, B26)+COUNTIF($D$142:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="1244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="1244" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B26)+COUNTIF($D$214:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="1245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="1245" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B26)+COUNTIF($D$214:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="1246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="1246" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B26)+COUNTIF($D$214:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="1247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="1247" stopIfTrue="1">
       <formula>AND(COUNTIF($D$474:$D$65380, B26)+COUNTIF($D$454:$D$455, B26)+COUNTIF($D$416:$D$417, B26)+COUNTIF($D$374:$D$377, B26)+COUNTIF($D$351:$D$352, B26)+COUNTIF($D$324:$D$325, B26)+COUNTIF($D$303:$D$303, B26)+COUNTIF($D$288:$D$289, B26)+COUNTIF($D$263:$D$263, B26)+COUNTIF($D$252:$D$253, B26)+COUNTIF($D$233:$D$234, B26)+COUNTIF($D$51:$D$218, B26)+COUNTIF($D$219:$D$220, B26)+COUNTIF($D$1:$D$50, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="87" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="84" priority="1190"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="1191"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="1192"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="1190"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1191"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B1048576 B1:B20">
-    <cfRule type="duplicateValues" dxfId="81" priority="347"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="347"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="80" priority="1220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="1220" stopIfTrue="1">
       <formula>AND(COUNTIF($C$314:$C$65460, L4)+COUNTIF($C$294:$C$295, L4)+COUNTIF($C$256:$C$257, L4)+COUNTIF($C$214:$C$217, L4)+COUNTIF($C$191:$C$192, L4)+COUNTIF($C$164:$C$165, L4)+COUNTIF($C$143:$C$143, L4)+COUNTIF($C$128:$C$129, L4)+COUNTIF($C$103:$C$103, L4)+COUNTIF($C$92:$C$93, L4)+COUNTIF($C$73:$C$74, L4)+COUNTIF($C$29:$C$56, L4)+COUNTIF($C$58:$C$60, L4)+COUNTIF($C$1:$C$27, L4)&gt;1,NOT(ISBLANK(L4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="1221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="1221" stopIfTrue="1">
       <formula>AND(COUNTIF($C$1:$C$65460, L4)+COUNTIF(#REF!, L4)&gt;1,NOT(ISBLANK(L4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="78" priority="1222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="1222" stopIfTrue="1">
       <formula>AND(COUNTIF($D$331:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$314:$D$315, M4)+COUNTIF($D$294:$D$295, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="1223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="1223" stopIfTrue="1">
       <formula>AND(COUNTIF($D$314:$D$65460, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$294:$D$295, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="1224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="1224" stopIfTrue="1">
       <formula>AND(COUNTIF($D$294:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="1225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="1225" stopIfTrue="1">
       <formula>AND(COUNTIF($D$256:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="1226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="1226" stopIfTrue="1">
       <formula>AND(COUNTIF($D$214:$D$65460, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="1227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="1227" stopIfTrue="1">
       <formula>AND(COUNTIF($D$214:$D$65460, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$51:$D$51, M4)+COUNTIF($D$53:$D$60, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="1228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="1228" stopIfTrue="1">
       <formula>AND(COUNTIF($D$191:$D$65460, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$51:$D$51, M4)+COUNTIF($D$53:$D$60, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="1229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="1229" stopIfTrue="1">
       <formula>AND(COUNTIF($F$369:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$352:$F$353, M4)+COUNTIF($F$332:$F$333, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="1230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="1230" stopIfTrue="1">
       <formula>AND(COUNTIF($F$352:$F$65454, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$332:$F$333, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="1231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="1231" stopIfTrue="1">
       <formula>AND(COUNTIF($F$332:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="1232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="1232" stopIfTrue="1">
       <formula>AND(COUNTIF($F$294:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="1233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="1233" stopIfTrue="1">
       <formula>AND(COUNTIF($F$252:$F$65454, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="1234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="1234" stopIfTrue="1">
       <formula>AND(COUNTIF($F$252:$F$65454, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$89:$F$89, M4)+COUNTIF($F$91:$F$98, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="1235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="1235" stopIfTrue="1">
       <formula>AND(COUNTIF($F$229:$F$65454, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$89:$F$89, M4)+COUNTIF($F$91:$F$98, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5346,27 +4767,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
     <col min="8" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.109375" customWidth="1"/>
+    <col min="16" max="16" width="16.08984375" customWidth="1"/>
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:18" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:18" ht="56" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="56" t="s">
         <v>52</v>
       </c>
@@ -5419,7 +4840,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="60" t="s">
         <v>68</v>
       </c>
@@ -5462,11 +4883,11 @@
       <c r="Q4" s="70">
         <v>0</v>
       </c>
-      <c r="R4" s="189" t="s">
+      <c r="R4" s="202" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="60" t="s">
         <v>68</v>
       </c>
@@ -5505,14 +4926,14 @@
       <c r="Q5" s="70">
         <v>0</v>
       </c>
-      <c r="R5" s="190"/>
-    </row>
-    <row r="6" spans="2:18" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="191" t="s">
+      <c r="R5" s="203"/>
+    </row>
+    <row r="6" spans="2:18" s="75" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="204" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="192"/>
-      <c r="D6" s="193"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="206"/>
       <c r="E6" s="73">
         <v>160</v>
       </c>
@@ -5539,7 +4960,7 @@
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="proto">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="proto">
       <formula>NOT(ISERROR(SEARCH("proto",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5548,113 +4969,113 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="15.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="3.109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="28.109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="3.109375" style="1" customWidth="1"/>
-    <col min="22" max="27" width="8.6640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="3.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="14.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.33203125" style="1" customWidth="1"/>
-    <col min="31" max="32" width="10.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.33203125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="38.109375" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.54296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.6328125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="16.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.08984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.54296875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="3.08984375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="28.08984375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.08984375" style="1" customWidth="1"/>
+    <col min="22" max="27" width="8.6328125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="3.08984375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="14.36328125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.36328125" style="1" customWidth="1"/>
+    <col min="31" max="32" width="10.6328125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.36328125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="8.08984375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="38.08984375" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="165" t="s">
+    <row r="1" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="164" t="s">
+      <c r="C1" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="164" t="s">
+      <c r="D1" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="165" t="s">
+      <c r="E1" s="164" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="165" t="s">
+      <c r="F1" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="164" t="s">
+      <c r="G1" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="165" t="s">
+      <c r="H1" s="164" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="164" t="s">
+      <c r="I1" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="166" t="s">
+      <c r="J1" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="216" t="s">
+      <c r="K1" s="172" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="216" t="s">
+      <c r="L1" s="172" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="166" t="s">
+      <c r="M1" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="166" t="s">
+      <c r="N1" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="215" t="s">
-        <v>166</v>
+      <c r="O1" s="171" t="s">
+        <v>173</v>
       </c>
       <c r="P1" s="126" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="128">
         <v>1</v>
       </c>
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="166" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="167">
+      <c r="D2" s="8">
         <v>89.028999999999996</v>
       </c>
-      <c r="E2" s="217" t="s">
+      <c r="E2" s="173" t="s">
         <v>158</v>
       </c>
       <c r="F2" s="129">
@@ -5663,18 +5084,18 @@
       <c r="G2" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="144" t="s">
         <v>163</v>
       </c>
       <c r="I2" s="130"/>
-      <c r="J2" s="212">
+      <c r="J2" s="168">
         <v>45946</v>
       </c>
-      <c r="K2" s="213">
+      <c r="K2" s="169">
         <f>J2+3</f>
         <v>45949</v>
       </c>
-      <c r="L2" s="213">
+      <c r="L2" s="169">
         <v>45967</v>
       </c>
       <c r="M2" s="131">
@@ -5685,25 +5106,24 @@
         <f>M2+1</f>
         <v>45969</v>
       </c>
-      <c r="O2" s="214">
-        <v>11.505000000000001</v>
-      </c>
-      <c r="P2" s="132"/>
-    </row>
-    <row r="3" spans="1:37" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O2" s="170">
+        <v>1150500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="128">
         <v>2</v>
       </c>
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="167">
+      <c r="D3" s="8">
         <v>29.122</v>
       </c>
-      <c r="E3" s="217" t="s">
+      <c r="E3" s="173" t="s">
         <v>158</v>
       </c>
       <c r="F3" s="129">
@@ -5712,18 +5132,18 @@
       <c r="G3" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="145" t="s">
+      <c r="H3" s="144" t="s">
         <v>163</v>
       </c>
       <c r="I3" s="130"/>
-      <c r="J3" s="212">
+      <c r="J3" s="168">
         <v>45966</v>
       </c>
-      <c r="K3" s="213">
+      <c r="K3" s="169">
         <f>J3+1</f>
         <v>45967</v>
       </c>
-      <c r="L3" s="213">
+      <c r="L3" s="169">
         <v>45971</v>
       </c>
       <c r="M3" s="131">
@@ -5734,41 +5154,40 @@
         <f t="shared" si="0"/>
         <v>45973</v>
       </c>
-      <c r="O3" s="214">
-        <v>3.6</v>
-      </c>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="T3" s="136"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="135"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="135"/>
-      <c r="AI3" s="137"/>
-    </row>
-    <row r="4" spans="1:37" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O3" s="170">
+        <v>360000</v>
+      </c>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="T3" s="135"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="134"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="136"/>
+    </row>
+    <row r="4" spans="1:37" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="128">
         <v>3</v>
       </c>
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="167">
+      <c r="D4" s="8">
         <v>27.963000000000001</v>
       </c>
-      <c r="E4" s="217" t="s">
+      <c r="E4" s="173" t="s">
         <v>158</v>
       </c>
       <c r="F4" s="129">
@@ -5777,18 +5196,18 @@
       <c r="G4" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="145" t="s">
+      <c r="H4" s="144" t="s">
         <v>163</v>
       </c>
       <c r="I4" s="130"/>
-      <c r="J4" s="212">
+      <c r="J4" s="168">
         <v>45971</v>
       </c>
-      <c r="K4" s="213">
+      <c r="K4" s="169">
         <f t="shared" ref="K4:K21" si="1">J4+1</f>
         <v>45972</v>
       </c>
-      <c r="L4" s="213">
+      <c r="L4" s="169">
         <v>45975</v>
       </c>
       <c r="M4" s="131">
@@ -5799,41 +5218,40 @@
         <f t="shared" si="0"/>
         <v>45977</v>
       </c>
-      <c r="O4" s="214">
-        <v>3.08</v>
-      </c>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="138"/>
-      <c r="R4" s="137"/>
-      <c r="T4" s="136"/>
-      <c r="V4" s="135"/>
-      <c r="W4" s="135"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="135"/>
-      <c r="AA4" s="137"/>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="135"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="135"/>
-      <c r="AG4" s="135"/>
-      <c r="AH4" s="137"/>
-      <c r="AI4" s="137"/>
-    </row>
-    <row r="5" spans="1:37" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O4" s="170">
+        <v>308000</v>
+      </c>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="136"/>
+      <c r="T4" s="135"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="136"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="134"/>
+      <c r="AG4" s="134"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+    </row>
+    <row r="5" spans="1:37" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="128">
         <v>4</v>
       </c>
-      <c r="B5" s="211" t="s">
+      <c r="B5" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="167">
+      <c r="D5" s="8">
         <v>26.846</v>
       </c>
-      <c r="E5" s="217" t="s">
+      <c r="E5" s="173" t="s">
         <v>158</v>
       </c>
       <c r="F5" s="129">
@@ -5842,18 +5260,18 @@
       <c r="G5" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="H5" s="145" t="s">
+      <c r="H5" s="144" t="s">
         <v>163</v>
       </c>
       <c r="I5" s="130"/>
-      <c r="J5" s="212">
+      <c r="J5" s="168">
         <v>45975</v>
       </c>
-      <c r="K5" s="213">
+      <c r="K5" s="169">
         <f t="shared" si="1"/>
         <v>45976</v>
       </c>
-      <c r="L5" s="213">
+      <c r="L5" s="169">
         <v>45979</v>
       </c>
       <c r="M5" s="131">
@@ -5864,41 +5282,40 @@
         <f t="shared" si="0"/>
         <v>45981</v>
       </c>
-      <c r="O5" s="214">
-        <v>2.95</v>
-      </c>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="139"/>
-      <c r="T5" s="140"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="141"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="141"/>
-      <c r="AC5" s="142"/>
-      <c r="AD5" s="142"/>
-      <c r="AE5" s="142"/>
-      <c r="AF5" s="142"/>
-      <c r="AG5" s="142"/>
-      <c r="AH5" s="143"/>
-      <c r="AI5" s="144"/>
-    </row>
-    <row r="6" spans="1:37" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O5" s="170">
+        <v>295000</v>
+      </c>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="138"/>
+      <c r="T5" s="139"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AC5" s="141"/>
+      <c r="AD5" s="141"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="141"/>
+      <c r="AG5" s="141"/>
+      <c r="AH5" s="142"/>
+      <c r="AI5" s="143"/>
+    </row>
+    <row r="6" spans="1:37" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="128">
         <v>5</v>
       </c>
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="167" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="167">
+      <c r="D6" s="8">
         <v>27.963000000000001</v>
       </c>
-      <c r="E6" s="217" t="s">
+      <c r="E6" s="173" t="s">
         <v>158</v>
       </c>
       <c r="F6" s="129">
@@ -5907,18 +5324,18 @@
       <c r="G6" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="145" t="s">
+      <c r="H6" s="144" t="s">
         <v>163</v>
       </c>
       <c r="I6" s="130"/>
-      <c r="J6" s="212">
+      <c r="J6" s="168">
         <v>45979</v>
       </c>
-      <c r="K6" s="213">
+      <c r="K6" s="169">
         <f t="shared" si="1"/>
         <v>45980</v>
       </c>
-      <c r="L6" s="213">
+      <c r="L6" s="169">
         <v>45984</v>
       </c>
       <c r="M6" s="131">
@@ -5929,41 +5346,40 @@
         <f t="shared" si="0"/>
         <v>45986</v>
       </c>
-      <c r="O6" s="214">
-        <v>3.08</v>
-      </c>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="T6" s="140"/>
-      <c r="V6" s="141"/>
-      <c r="W6" s="141"/>
-      <c r="X6" s="141"/>
-      <c r="Y6" s="141"/>
-      <c r="Z6" s="141"/>
-      <c r="AA6" s="141"/>
-      <c r="AC6" s="142"/>
-      <c r="AD6" s="142"/>
-      <c r="AE6" s="142"/>
-      <c r="AF6" s="142"/>
-      <c r="AG6" s="142"/>
-      <c r="AH6" s="143"/>
-      <c r="AI6" s="144"/>
-    </row>
-    <row r="7" spans="1:37" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O6" s="170">
+        <v>308000</v>
+      </c>
+      <c r="Q6" s="138"/>
+      <c r="R6" s="138"/>
+      <c r="T6" s="139"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="140"/>
+      <c r="AA6" s="140"/>
+      <c r="AC6" s="141"/>
+      <c r="AD6" s="141"/>
+      <c r="AE6" s="141"/>
+      <c r="AF6" s="141"/>
+      <c r="AG6" s="141"/>
+      <c r="AH6" s="142"/>
+      <c r="AI6" s="143"/>
+    </row>
+    <row r="7" spans="1:37" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="128">
         <v>6</v>
       </c>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="167" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="167" t="s">
+      <c r="C7" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="167">
+      <c r="D7" s="8">
         <v>73.176000000000002</v>
       </c>
-      <c r="E7" s="217" t="s">
+      <c r="E7" s="173" t="s">
         <v>158</v>
       </c>
       <c r="F7" s="129">
@@ -5972,18 +5388,18 @@
       <c r="G7" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="145" t="s">
+      <c r="H7" s="144" t="s">
         <v>163</v>
       </c>
       <c r="I7" s="130"/>
-      <c r="J7" s="212">
+      <c r="J7" s="168">
         <v>45984</v>
       </c>
-      <c r="K7" s="213">
+      <c r="K7" s="169">
         <f t="shared" si="1"/>
         <v>45985</v>
       </c>
-      <c r="L7" s="213">
+      <c r="L7" s="169">
         <v>45991</v>
       </c>
       <c r="M7" s="131">
@@ -5994,41 +5410,40 @@
         <f t="shared" si="0"/>
         <v>45993</v>
       </c>
-      <c r="O7" s="214">
-        <v>8.09</v>
-      </c>
-      <c r="P7" s="132"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
-      <c r="T7" s="140"/>
-      <c r="V7" s="141"/>
-      <c r="W7" s="141"/>
-      <c r="X7" s="141"/>
-      <c r="Y7" s="141"/>
-      <c r="Z7" s="141"/>
-      <c r="AA7" s="141"/>
-      <c r="AC7" s="142"/>
-      <c r="AD7" s="142"/>
-      <c r="AE7" s="142"/>
-      <c r="AF7" s="142"/>
-      <c r="AG7" s="142"/>
-      <c r="AH7" s="143"/>
-      <c r="AI7" s="144"/>
-    </row>
-    <row r="8" spans="1:37" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O7" s="170">
+        <v>809000</v>
+      </c>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
+      <c r="T7" s="139"/>
+      <c r="V7" s="140"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
+      <c r="AC7" s="141"/>
+      <c r="AD7" s="141"/>
+      <c r="AE7" s="141"/>
+      <c r="AF7" s="141"/>
+      <c r="AG7" s="141"/>
+      <c r="AH7" s="142"/>
+      <c r="AI7" s="143"/>
+    </row>
+    <row r="8" spans="1:37" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="128">
         <v>7</v>
       </c>
-      <c r="B8" s="211" t="s">
+      <c r="B8" s="167" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="167" t="s">
+      <c r="C8" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="167">
+      <c r="D8" s="8">
         <v>26.846</v>
       </c>
-      <c r="E8" s="217" t="s">
+      <c r="E8" s="173" t="s">
         <v>159</v>
       </c>
       <c r="F8" s="129">
@@ -6041,14 +5456,14 @@
         <v>162</v>
       </c>
       <c r="I8" s="130"/>
-      <c r="J8" s="212">
+      <c r="J8" s="168">
         <v>45959</v>
       </c>
-      <c r="K8" s="213">
+      <c r="K8" s="169">
         <f t="shared" si="1"/>
         <v>45960</v>
       </c>
-      <c r="L8" s="213">
+      <c r="L8" s="169">
         <v>45966</v>
       </c>
       <c r="M8" s="131">
@@ -6059,41 +5474,40 @@
         <f t="shared" si="0"/>
         <v>45968</v>
       </c>
-      <c r="O8" s="214">
-        <v>2.95</v>
-      </c>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="139"/>
-      <c r="R8" s="139"/>
-      <c r="T8" s="140"/>
-      <c r="V8" s="141"/>
-      <c r="W8" s="141"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="141"/>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="141"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="142"/>
-      <c r="AF8" s="142"/>
-      <c r="AG8" s="142"/>
-      <c r="AH8" s="143"/>
-      <c r="AI8" s="144"/>
-    </row>
-    <row r="9" spans="1:37" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O8" s="170">
+        <v>295000</v>
+      </c>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="138"/>
+      <c r="T8" s="139"/>
+      <c r="V8" s="140"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="140"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
+      <c r="AC8" s="141"/>
+      <c r="AD8" s="141"/>
+      <c r="AE8" s="141"/>
+      <c r="AF8" s="141"/>
+      <c r="AG8" s="141"/>
+      <c r="AH8" s="142"/>
+      <c r="AI8" s="143"/>
+    </row>
+    <row r="9" spans="1:37" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="128">
         <v>8</v>
       </c>
-      <c r="B9" s="211" t="s">
+      <c r="B9" s="167" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="167">
+      <c r="D9" s="8">
         <v>27.963000000000001</v>
       </c>
-      <c r="E9" s="217" t="s">
+      <c r="E9" s="173" t="s">
         <v>159</v>
       </c>
       <c r="F9" s="129">
@@ -6106,14 +5520,14 @@
         <v>162</v>
       </c>
       <c r="I9" s="130"/>
-      <c r="J9" s="212">
+      <c r="J9" s="168">
         <v>45966</v>
       </c>
-      <c r="K9" s="213">
+      <c r="K9" s="169">
         <f t="shared" si="1"/>
         <v>45967</v>
       </c>
-      <c r="L9" s="213">
+      <c r="L9" s="169">
         <v>45971</v>
       </c>
       <c r="M9" s="131">
@@ -6124,41 +5538,40 @@
         <f t="shared" si="0"/>
         <v>45973</v>
       </c>
-      <c r="O9" s="214">
-        <v>3.08</v>
-      </c>
-      <c r="P9" s="132"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="139"/>
-      <c r="T9" s="140"/>
-      <c r="V9" s="141"/>
-      <c r="W9" s="141"/>
-      <c r="X9" s="141"/>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="141"/>
-      <c r="AC9" s="142"/>
-      <c r="AD9" s="142"/>
-      <c r="AE9" s="142"/>
-      <c r="AF9" s="142"/>
-      <c r="AG9" s="142"/>
-      <c r="AH9" s="143"/>
-      <c r="AI9" s="144"/>
-    </row>
-    <row r="10" spans="1:37" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O9" s="170">
+        <v>308000</v>
+      </c>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="138"/>
+      <c r="T9" s="139"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="140"/>
+      <c r="AC9" s="141"/>
+      <c r="AD9" s="141"/>
+      <c r="AE9" s="141"/>
+      <c r="AF9" s="141"/>
+      <c r="AG9" s="141"/>
+      <c r="AH9" s="142"/>
+      <c r="AI9" s="143"/>
+    </row>
+    <row r="10" spans="1:37" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="128">
         <v>9</v>
       </c>
-      <c r="B10" s="211" t="s">
+      <c r="B10" s="167" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="167" t="s">
+      <c r="C10" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="167">
+      <c r="D10" s="8">
         <v>27.600999999999999</v>
       </c>
-      <c r="E10" s="217" t="s">
+      <c r="E10" s="173" t="s">
         <v>159</v>
       </c>
       <c r="F10" s="129">
@@ -6171,14 +5584,14 @@
         <v>162</v>
       </c>
       <c r="I10" s="130"/>
-      <c r="J10" s="212">
+      <c r="J10" s="168">
         <v>45972</v>
       </c>
-      <c r="K10" s="213">
+      <c r="K10" s="169">
         <f t="shared" si="1"/>
         <v>45973</v>
       </c>
-      <c r="L10" s="213">
+      <c r="L10" s="169">
         <v>45977</v>
       </c>
       <c r="M10" s="131">
@@ -6189,42 +5602,41 @@
         <f t="shared" si="0"/>
         <v>45979</v>
       </c>
-      <c r="O10" s="214">
-        <v>3.04</v>
-      </c>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="139"/>
-      <c r="R10" s="139"/>
-      <c r="T10" s="140"/>
-      <c r="V10" s="141"/>
-      <c r="W10" s="141"/>
-      <c r="X10" s="141"/>
-      <c r="Y10" s="141"/>
-      <c r="Z10" s="141"/>
-      <c r="AA10" s="141"/>
-      <c r="AC10" s="142"/>
-      <c r="AD10" s="142"/>
-      <c r="AE10" s="142"/>
-      <c r="AF10" s="142"/>
-      <c r="AG10" s="142"/>
-      <c r="AH10" s="143"/>
-      <c r="AI10" s="144"/>
-      <c r="AK10" s="133"/>
-    </row>
-    <row r="11" spans="1:37" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O10" s="170">
+        <v>304000</v>
+      </c>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="138"/>
+      <c r="T10" s="139"/>
+      <c r="V10" s="140"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="140"/>
+      <c r="Y10" s="140"/>
+      <c r="Z10" s="140"/>
+      <c r="AA10" s="140"/>
+      <c r="AC10" s="141"/>
+      <c r="AD10" s="141"/>
+      <c r="AE10" s="141"/>
+      <c r="AF10" s="141"/>
+      <c r="AG10" s="141"/>
+      <c r="AH10" s="142"/>
+      <c r="AI10" s="143"/>
+      <c r="AK10" s="132"/>
+    </row>
+    <row r="11" spans="1:37" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="128">
         <v>10</v>
       </c>
-      <c r="B11" s="211" t="s">
+      <c r="B11" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="167" t="s">
+      <c r="C11" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="167">
+      <c r="D11" s="8">
         <v>26.846</v>
       </c>
-      <c r="E11" s="217" t="s">
+      <c r="E11" s="173" t="s">
         <v>159</v>
       </c>
       <c r="F11" s="129">
@@ -6237,14 +5649,14 @@
         <v>162</v>
       </c>
       <c r="I11" s="130"/>
-      <c r="J11" s="212">
+      <c r="J11" s="168">
         <v>45977</v>
       </c>
-      <c r="K11" s="213">
+      <c r="K11" s="169">
         <f t="shared" si="1"/>
         <v>45978</v>
       </c>
-      <c r="L11" s="213">
+      <c r="L11" s="169">
         <v>45982</v>
       </c>
       <c r="M11" s="131">
@@ -6255,41 +5667,40 @@
         <f t="shared" si="0"/>
         <v>45984</v>
       </c>
-      <c r="O11" s="214">
-        <v>2.95</v>
-      </c>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="139"/>
-      <c r="R11" s="139"/>
-      <c r="T11" s="140"/>
-      <c r="V11" s="141"/>
-      <c r="W11" s="141"/>
-      <c r="X11" s="141"/>
-      <c r="Y11" s="141"/>
-      <c r="Z11" s="141"/>
-      <c r="AA11" s="141"/>
-      <c r="AC11" s="142"/>
-      <c r="AD11" s="142"/>
-      <c r="AE11" s="142"/>
-      <c r="AF11" s="142"/>
-      <c r="AG11" s="142"/>
-      <c r="AH11" s="143"/>
-      <c r="AI11" s="144"/>
-    </row>
-    <row r="12" spans="1:37" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O11" s="170">
+        <v>295000</v>
+      </c>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="138"/>
+      <c r="T11" s="139"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="140"/>
+      <c r="Y11" s="140"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="140"/>
+      <c r="AC11" s="141"/>
+      <c r="AD11" s="141"/>
+      <c r="AE11" s="141"/>
+      <c r="AF11" s="141"/>
+      <c r="AG11" s="141"/>
+      <c r="AH11" s="142"/>
+      <c r="AI11" s="143"/>
+    </row>
+    <row r="12" spans="1:37" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="128">
         <v>11</v>
       </c>
-      <c r="B12" s="211" t="s">
+      <c r="B12" s="167" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="167" t="s">
+      <c r="C12" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="167">
+      <c r="D12" s="8">
         <v>45.136000000000003</v>
       </c>
-      <c r="E12" s="217" t="s">
+      <c r="E12" s="173" t="s">
         <v>159</v>
       </c>
       <c r="F12" s="129">
@@ -6302,14 +5713,14 @@
         <v>162</v>
       </c>
       <c r="I12" s="130"/>
-      <c r="J12" s="212">
+      <c r="J12" s="168">
         <v>45983</v>
       </c>
-      <c r="K12" s="213">
+      <c r="K12" s="169">
         <f t="shared" si="1"/>
         <v>45984</v>
       </c>
-      <c r="L12" s="213">
+      <c r="L12" s="169">
         <v>45990</v>
       </c>
       <c r="M12" s="131">
@@ -6320,41 +5731,40 @@
         <f t="shared" si="0"/>
         <v>45992</v>
       </c>
-      <c r="O12" s="214">
-        <v>4.88</v>
-      </c>
-      <c r="P12" s="132"/>
-      <c r="Q12" s="139"/>
-      <c r="R12" s="139"/>
-      <c r="T12" s="140"/>
-      <c r="V12" s="141"/>
-      <c r="W12" s="141"/>
-      <c r="X12" s="141"/>
-      <c r="Y12" s="141"/>
-      <c r="Z12" s="141"/>
-      <c r="AA12" s="141"/>
-      <c r="AC12" s="142"/>
-      <c r="AD12" s="142"/>
-      <c r="AE12" s="142"/>
-      <c r="AF12" s="142"/>
-      <c r="AG12" s="142"/>
-      <c r="AH12" s="143"/>
-      <c r="AI12" s="144"/>
-    </row>
-    <row r="13" spans="1:37" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O12" s="170">
+        <v>488000</v>
+      </c>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="138"/>
+      <c r="T12" s="139"/>
+      <c r="V12" s="140"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="140"/>
+      <c r="AC12" s="141"/>
+      <c r="AD12" s="141"/>
+      <c r="AE12" s="141"/>
+      <c r="AF12" s="141"/>
+      <c r="AG12" s="141"/>
+      <c r="AH12" s="142"/>
+      <c r="AI12" s="143"/>
+    </row>
+    <row r="13" spans="1:37" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="128">
         <v>12</v>
       </c>
-      <c r="B13" s="211" t="s">
+      <c r="B13" s="167" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="167" t="s">
+      <c r="C13" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="167">
+      <c r="D13" s="8">
         <v>89.028999999999996</v>
       </c>
-      <c r="E13" s="217" t="s">
+      <c r="E13" s="173" t="s">
         <v>160</v>
       </c>
       <c r="F13" s="129">
@@ -6367,14 +5777,14 @@
         <v>164</v>
       </c>
       <c r="I13" s="130"/>
-      <c r="J13" s="212">
+      <c r="J13" s="168">
         <v>45946</v>
       </c>
-      <c r="K13" s="213">
+      <c r="K13" s="169">
         <f>J13+3</f>
         <v>45949</v>
       </c>
-      <c r="L13" s="213">
+      <c r="L13" s="169">
         <v>45968</v>
       </c>
       <c r="M13" s="131">
@@ -6385,41 +5795,40 @@
         <f t="shared" si="0"/>
         <v>45970</v>
       </c>
-      <c r="O13" s="214">
-        <v>11.51</v>
-      </c>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="139"/>
-      <c r="T13" s="140"/>
-      <c r="V13" s="141"/>
-      <c r="W13" s="141"/>
-      <c r="X13" s="141"/>
-      <c r="Y13" s="141"/>
-      <c r="Z13" s="141"/>
-      <c r="AA13" s="141"/>
-      <c r="AC13" s="142"/>
-      <c r="AD13" s="142"/>
-      <c r="AE13" s="142"/>
-      <c r="AF13" s="142"/>
-      <c r="AG13" s="142"/>
-      <c r="AH13" s="143"/>
-      <c r="AI13" s="144"/>
-    </row>
-    <row r="14" spans="1:37" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O13" s="170">
+        <v>1151000</v>
+      </c>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="138"/>
+      <c r="T13" s="139"/>
+      <c r="V13" s="140"/>
+      <c r="W13" s="140"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="140"/>
+      <c r="Z13" s="140"/>
+      <c r="AA13" s="140"/>
+      <c r="AC13" s="141"/>
+      <c r="AD13" s="141"/>
+      <c r="AE13" s="141"/>
+      <c r="AF13" s="141"/>
+      <c r="AG13" s="141"/>
+      <c r="AH13" s="142"/>
+      <c r="AI13" s="143"/>
+    </row>
+    <row r="14" spans="1:37" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="128">
         <v>13</v>
       </c>
-      <c r="B14" s="211" t="s">
+      <c r="B14" s="167" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="167" t="s">
+      <c r="C14" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="167">
+      <c r="D14" s="8">
         <v>51.673000000000002</v>
       </c>
-      <c r="E14" s="217" t="s">
+      <c r="E14" s="173" t="s">
         <v>160</v>
       </c>
       <c r="F14" s="129">
@@ -6432,14 +5841,14 @@
         <v>164</v>
       </c>
       <c r="I14" s="130"/>
-      <c r="J14" s="212">
+      <c r="J14" s="168">
         <v>45968</v>
       </c>
-      <c r="K14" s="213">
+      <c r="K14" s="169">
         <f t="shared" si="1"/>
         <v>45969</v>
       </c>
-      <c r="L14" s="213">
+      <c r="L14" s="169">
         <v>45975</v>
       </c>
       <c r="M14" s="131">
@@ -6450,41 +5859,40 @@
         <f t="shared" si="0"/>
         <v>45977</v>
       </c>
-      <c r="O14" s="214">
-        <v>5.62</v>
-      </c>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="139"/>
-      <c r="T14" s="140"/>
-      <c r="V14" s="141"/>
-      <c r="W14" s="141"/>
-      <c r="X14" s="141"/>
-      <c r="Y14" s="141"/>
-      <c r="Z14" s="141"/>
-      <c r="AA14" s="141"/>
-      <c r="AC14" s="142"/>
-      <c r="AD14" s="142"/>
-      <c r="AE14" s="142"/>
-      <c r="AF14" s="142"/>
-      <c r="AG14" s="142"/>
-      <c r="AH14" s="143"/>
-      <c r="AI14" s="144"/>
-    </row>
-    <row r="15" spans="1:37" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O14" s="170">
+        <v>562000</v>
+      </c>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="138"/>
+      <c r="T14" s="139"/>
+      <c r="V14" s="140"/>
+      <c r="W14" s="140"/>
+      <c r="X14" s="140"/>
+      <c r="Y14" s="140"/>
+      <c r="Z14" s="140"/>
+      <c r="AA14" s="140"/>
+      <c r="AC14" s="141"/>
+      <c r="AD14" s="141"/>
+      <c r="AE14" s="141"/>
+      <c r="AF14" s="141"/>
+      <c r="AG14" s="141"/>
+      <c r="AH14" s="142"/>
+      <c r="AI14" s="143"/>
+    </row>
+    <row r="15" spans="1:37" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="128">
         <v>14</v>
       </c>
-      <c r="B15" s="211" t="s">
+      <c r="B15" s="167" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="167" t="s">
+      <c r="C15" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="167">
+      <c r="D15" s="8">
         <v>29.122</v>
       </c>
-      <c r="E15" s="217" t="s">
+      <c r="E15" s="173" t="s">
         <v>160</v>
       </c>
       <c r="F15" s="129">
@@ -6497,14 +5905,14 @@
         <v>164</v>
       </c>
       <c r="I15" s="130"/>
-      <c r="J15" s="212">
+      <c r="J15" s="168">
         <v>45975</v>
       </c>
-      <c r="K15" s="213">
+      <c r="K15" s="169">
         <f t="shared" si="1"/>
         <v>45976</v>
       </c>
-      <c r="L15" s="213">
+      <c r="L15" s="169">
         <v>45980</v>
       </c>
       <c r="M15" s="131">
@@ -6515,41 +5923,40 @@
         <f t="shared" si="0"/>
         <v>45982</v>
       </c>
-      <c r="O15" s="214">
-        <v>3.6</v>
-      </c>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="139"/>
-      <c r="T15" s="140"/>
-      <c r="V15" s="141"/>
-      <c r="W15" s="141"/>
-      <c r="X15" s="141"/>
-      <c r="Y15" s="141"/>
-      <c r="Z15" s="141"/>
-      <c r="AA15" s="141"/>
-      <c r="AC15" s="142"/>
-      <c r="AD15" s="142"/>
-      <c r="AE15" s="142"/>
-      <c r="AF15" s="142"/>
-      <c r="AG15" s="142"/>
-      <c r="AH15" s="143"/>
-      <c r="AI15" s="144"/>
-    </row>
-    <row r="16" spans="1:37" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O15" s="170">
+        <v>360000</v>
+      </c>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="138"/>
+      <c r="T15" s="139"/>
+      <c r="V15" s="140"/>
+      <c r="W15" s="140"/>
+      <c r="X15" s="140"/>
+      <c r="Y15" s="140"/>
+      <c r="Z15" s="140"/>
+      <c r="AA15" s="140"/>
+      <c r="AC15" s="141"/>
+      <c r="AD15" s="141"/>
+      <c r="AE15" s="141"/>
+      <c r="AF15" s="141"/>
+      <c r="AG15" s="141"/>
+      <c r="AH15" s="142"/>
+      <c r="AI15" s="143"/>
+    </row>
+    <row r="16" spans="1:37" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="128">
         <v>15</v>
       </c>
-      <c r="B16" s="211" t="s">
+      <c r="B16" s="167" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="167">
+      <c r="D16" s="8">
         <v>26.846</v>
       </c>
-      <c r="E16" s="217" t="s">
+      <c r="E16" s="173" t="s">
         <v>160</v>
       </c>
       <c r="F16" s="129">
@@ -6562,14 +5969,14 @@
         <v>164</v>
       </c>
       <c r="I16" s="130"/>
-      <c r="J16" s="212">
+      <c r="J16" s="168">
         <v>45980</v>
       </c>
-      <c r="K16" s="213">
+      <c r="K16" s="169">
         <f t="shared" si="1"/>
         <v>45981</v>
       </c>
-      <c r="L16" s="213">
+      <c r="L16" s="169">
         <v>45985</v>
       </c>
       <c r="M16" s="131">
@@ -6580,41 +5987,40 @@
         <f t="shared" si="0"/>
         <v>45987</v>
       </c>
-      <c r="O16" s="214">
-        <v>2.95</v>
-      </c>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="139"/>
-      <c r="T16" s="140"/>
-      <c r="V16" s="141"/>
-      <c r="W16" s="141"/>
-      <c r="X16" s="141"/>
-      <c r="Y16" s="141"/>
-      <c r="Z16" s="141"/>
-      <c r="AA16" s="141"/>
-      <c r="AC16" s="142"/>
-      <c r="AD16" s="142"/>
-      <c r="AE16" s="142"/>
-      <c r="AF16" s="142"/>
-      <c r="AG16" s="142"/>
-      <c r="AH16" s="143"/>
-      <c r="AI16" s="144"/>
-    </row>
-    <row r="17" spans="1:35" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O16" s="170">
+        <v>295000</v>
+      </c>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="138"/>
+      <c r="T16" s="139"/>
+      <c r="V16" s="140"/>
+      <c r="W16" s="140"/>
+      <c r="X16" s="140"/>
+      <c r="Y16" s="140"/>
+      <c r="Z16" s="140"/>
+      <c r="AA16" s="140"/>
+      <c r="AC16" s="141"/>
+      <c r="AD16" s="141"/>
+      <c r="AE16" s="141"/>
+      <c r="AF16" s="141"/>
+      <c r="AG16" s="141"/>
+      <c r="AH16" s="142"/>
+      <c r="AI16" s="143"/>
+    </row>
+    <row r="17" spans="1:35" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="128">
         <v>16</v>
       </c>
-      <c r="B17" s="210" t="s">
+      <c r="B17" s="166" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="167">
+      <c r="D17" s="8">
         <v>26.846</v>
       </c>
-      <c r="E17" s="217" t="s">
+      <c r="E17" s="173" t="s">
         <v>160</v>
       </c>
       <c r="F17" s="129">
@@ -6627,14 +6033,14 @@
         <v>164</v>
       </c>
       <c r="I17" s="130"/>
-      <c r="J17" s="212">
+      <c r="J17" s="168">
         <v>45985</v>
       </c>
-      <c r="K17" s="213">
+      <c r="K17" s="169">
         <f t="shared" si="1"/>
         <v>45986</v>
       </c>
-      <c r="L17" s="213">
+      <c r="L17" s="169">
         <v>45990</v>
       </c>
       <c r="M17" s="131">
@@ -6645,41 +6051,40 @@
         <f t="shared" si="0"/>
         <v>45992</v>
       </c>
-      <c r="O17" s="214">
-        <v>2.95</v>
-      </c>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="139"/>
-      <c r="R17" s="139"/>
-      <c r="T17" s="140"/>
-      <c r="V17" s="141"/>
-      <c r="W17" s="141"/>
-      <c r="X17" s="141"/>
-      <c r="Y17" s="141"/>
-      <c r="Z17" s="141"/>
-      <c r="AA17" s="141"/>
-      <c r="AC17" s="142"/>
-      <c r="AD17" s="142"/>
-      <c r="AE17" s="142"/>
-      <c r="AF17" s="142"/>
-      <c r="AG17" s="142"/>
-      <c r="AH17" s="143"/>
-      <c r="AI17" s="144"/>
-    </row>
-    <row r="18" spans="1:35" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O17" s="170">
+        <v>295000</v>
+      </c>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="138"/>
+      <c r="T17" s="139"/>
+      <c r="V17" s="140"/>
+      <c r="W17" s="140"/>
+      <c r="X17" s="140"/>
+      <c r="Y17" s="140"/>
+      <c r="Z17" s="140"/>
+      <c r="AA17" s="140"/>
+      <c r="AC17" s="141"/>
+      <c r="AD17" s="141"/>
+      <c r="AE17" s="141"/>
+      <c r="AF17" s="141"/>
+      <c r="AG17" s="141"/>
+      <c r="AH17" s="142"/>
+      <c r="AI17" s="143"/>
+    </row>
+    <row r="18" spans="1:35" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="128">
         <v>17</v>
       </c>
-      <c r="B18" s="210" t="s">
+      <c r="B18" s="166" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="167" t="s">
+      <c r="C18" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="167">
+      <c r="D18" s="8">
         <v>26.846</v>
       </c>
-      <c r="E18" s="217" t="s">
+      <c r="E18" s="173" t="s">
         <v>152</v>
       </c>
       <c r="F18" s="129">
@@ -6692,14 +6097,14 @@
         <v>165</v>
       </c>
       <c r="I18" s="130"/>
-      <c r="J18" s="212">
+      <c r="J18" s="168">
         <v>45969</v>
       </c>
-      <c r="K18" s="213">
+      <c r="K18" s="169">
         <f t="shared" si="1"/>
         <v>45970</v>
       </c>
-      <c r="L18" s="213">
+      <c r="L18" s="169">
         <v>45974</v>
       </c>
       <c r="M18" s="131">
@@ -6710,41 +6115,40 @@
         <f t="shared" si="0"/>
         <v>45976</v>
       </c>
-      <c r="O18" s="214">
-        <v>2.95</v>
-      </c>
-      <c r="P18" s="132"/>
-      <c r="Q18" s="139"/>
-      <c r="R18" s="139"/>
-      <c r="T18" s="140"/>
-      <c r="V18" s="141"/>
-      <c r="W18" s="141"/>
-      <c r="X18" s="141"/>
-      <c r="Y18" s="141"/>
-      <c r="Z18" s="141"/>
-      <c r="AA18" s="141"/>
-      <c r="AC18" s="142"/>
-      <c r="AD18" s="142"/>
-      <c r="AE18" s="142"/>
-      <c r="AF18" s="142"/>
-      <c r="AG18" s="142"/>
-      <c r="AH18" s="143"/>
-      <c r="AI18" s="144"/>
-    </row>
-    <row r="19" spans="1:35" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O18" s="170">
+        <v>295000</v>
+      </c>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="138"/>
+      <c r="T18" s="139"/>
+      <c r="V18" s="140"/>
+      <c r="W18" s="140"/>
+      <c r="X18" s="140"/>
+      <c r="Y18" s="140"/>
+      <c r="Z18" s="140"/>
+      <c r="AA18" s="140"/>
+      <c r="AC18" s="141"/>
+      <c r="AD18" s="141"/>
+      <c r="AE18" s="141"/>
+      <c r="AF18" s="141"/>
+      <c r="AG18" s="141"/>
+      <c r="AH18" s="142"/>
+      <c r="AI18" s="143"/>
+    </row>
+    <row r="19" spans="1:35" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="128">
         <v>18</v>
       </c>
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="166" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="167" t="s">
+      <c r="C19" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="167">
+      <c r="D19" s="8">
         <v>33.304000000000002</v>
       </c>
-      <c r="E19" s="217" t="s">
+      <c r="E19" s="173" t="s">
         <v>152</v>
       </c>
       <c r="F19" s="129">
@@ -6760,11 +6164,11 @@
       <c r="J19" s="113">
         <v>45974</v>
       </c>
-      <c r="K19" s="213">
+      <c r="K19" s="169">
         <f t="shared" si="1"/>
         <v>45975</v>
       </c>
-      <c r="L19" s="213">
+      <c r="L19" s="169">
         <v>45979</v>
       </c>
       <c r="M19" s="131">
@@ -6775,41 +6179,40 @@
         <f t="shared" si="0"/>
         <v>45981</v>
       </c>
-      <c r="O19" s="214">
-        <v>3.74</v>
-      </c>
-      <c r="P19" s="132"/>
-      <c r="Q19" s="139"/>
-      <c r="R19" s="139"/>
-      <c r="T19" s="140"/>
-      <c r="V19" s="141"/>
-      <c r="W19" s="141"/>
-      <c r="X19" s="141"/>
-      <c r="Y19" s="141"/>
-      <c r="Z19" s="141"/>
-      <c r="AA19" s="141"/>
-      <c r="AC19" s="142"/>
-      <c r="AD19" s="142"/>
-      <c r="AE19" s="142"/>
-      <c r="AF19" s="142"/>
-      <c r="AG19" s="142"/>
-      <c r="AH19" s="143"/>
-      <c r="AI19" s="144"/>
-    </row>
-    <row r="20" spans="1:35" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O19" s="170">
+        <v>374000</v>
+      </c>
+      <c r="Q19" s="138"/>
+      <c r="R19" s="138"/>
+      <c r="T19" s="139"/>
+      <c r="V19" s="140"/>
+      <c r="W19" s="140"/>
+      <c r="X19" s="140"/>
+      <c r="Y19" s="140"/>
+      <c r="Z19" s="140"/>
+      <c r="AA19" s="140"/>
+      <c r="AC19" s="141"/>
+      <c r="AD19" s="141"/>
+      <c r="AE19" s="141"/>
+      <c r="AF19" s="141"/>
+      <c r="AG19" s="141"/>
+      <c r="AH19" s="142"/>
+      <c r="AI19" s="143"/>
+    </row>
+    <row r="20" spans="1:35" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="128">
         <v>19</v>
       </c>
-      <c r="B20" s="210" t="s">
+      <c r="B20" s="166" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="167" t="s">
+      <c r="C20" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="167">
+      <c r="D20" s="8">
         <v>26.846</v>
       </c>
-      <c r="E20" s="217" t="s">
+      <c r="E20" s="173" t="s">
         <v>152</v>
       </c>
       <c r="F20" s="129">
@@ -6825,11 +6228,11 @@
       <c r="J20" s="113">
         <v>45979</v>
       </c>
-      <c r="K20" s="213">
+      <c r="K20" s="169">
         <f t="shared" si="1"/>
         <v>45980</v>
       </c>
-      <c r="L20" s="213">
+      <c r="L20" s="169">
         <v>45984</v>
       </c>
       <c r="M20" s="131">
@@ -6840,40 +6243,39 @@
         <f t="shared" si="0"/>
         <v>45986</v>
       </c>
-      <c r="O20" s="214">
-        <v>2.95</v>
-      </c>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="139"/>
-      <c r="R20" s="139"/>
-      <c r="V20" s="141"/>
-      <c r="W20" s="141"/>
-      <c r="X20" s="141"/>
-      <c r="Y20" s="141"/>
-      <c r="Z20" s="141"/>
-      <c r="AA20" s="141"/>
-      <c r="AC20" s="142"/>
-      <c r="AD20" s="142"/>
-      <c r="AE20" s="142"/>
-      <c r="AF20" s="142"/>
-      <c r="AG20" s="142"/>
-      <c r="AH20" s="143"/>
-      <c r="AI20" s="144"/>
-    </row>
-    <row r="21" spans="1:35" s="134" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O20" s="170">
+        <v>295000</v>
+      </c>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="138"/>
+      <c r="V20" s="140"/>
+      <c r="W20" s="140"/>
+      <c r="X20" s="140"/>
+      <c r="Y20" s="140"/>
+      <c r="Z20" s="140"/>
+      <c r="AA20" s="140"/>
+      <c r="AC20" s="141"/>
+      <c r="AD20" s="141"/>
+      <c r="AE20" s="141"/>
+      <c r="AF20" s="141"/>
+      <c r="AG20" s="141"/>
+      <c r="AH20" s="142"/>
+      <c r="AI20" s="143"/>
+    </row>
+    <row r="21" spans="1:35" s="133" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="128">
         <v>20</v>
       </c>
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="166" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="167" t="s">
+      <c r="C21" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="167">
+      <c r="D21" s="8">
         <v>52.140999999999998</v>
       </c>
-      <c r="E21" s="217" t="s">
+      <c r="E21" s="173" t="s">
         <v>152</v>
       </c>
       <c r="F21" s="129">
@@ -6889,11 +6291,11 @@
       <c r="J21" s="113">
         <v>45984</v>
       </c>
-      <c r="K21" s="213">
+      <c r="K21" s="169">
         <f t="shared" si="1"/>
         <v>45985</v>
       </c>
-      <c r="L21" s="213">
+      <c r="L21" s="169">
         <v>45991</v>
       </c>
       <c r="M21" s="131">
@@ -6904,129 +6306,110 @@
         <f t="shared" si="0"/>
         <v>45993</v>
       </c>
-      <c r="O21" s="214">
-        <v>5.94</v>
-      </c>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="139"/>
-      <c r="R21" s="139"/>
-      <c r="T21" s="140"/>
-      <c r="V21" s="141"/>
-      <c r="W21" s="141"/>
-      <c r="X21" s="141"/>
-      <c r="Y21" s="141"/>
-      <c r="Z21" s="141"/>
-      <c r="AA21" s="141"/>
-      <c r="AC21" s="142"/>
-      <c r="AD21" s="142"/>
-      <c r="AE21" s="142"/>
-      <c r="AF21" s="142"/>
-      <c r="AG21" s="142"/>
-      <c r="AH21" s="143"/>
-      <c r="AI21" s="144"/>
+      <c r="O21" s="170">
+        <v>594000</v>
+      </c>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="138"/>
+      <c r="T21" s="139"/>
+      <c r="V21" s="140"/>
+      <c r="W21" s="140"/>
+      <c r="X21" s="140"/>
+      <c r="Y21" s="140"/>
+      <c r="Z21" s="140"/>
+      <c r="AA21" s="140"/>
+      <c r="AC21" s="141"/>
+      <c r="AD21" s="141"/>
+      <c r="AE21" s="141"/>
+      <c r="AF21" s="141"/>
+      <c r="AG21" s="141"/>
+      <c r="AH21" s="142"/>
+      <c r="AI21" s="143"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="M2:N21">
-    <cfRule type="containsText" dxfId="41" priority="100" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",M2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N21">
-    <cfRule type="containsText" dxfId="37" priority="99" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",M2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N21">
-    <cfRule type="containsText" dxfId="36" priority="97" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",M2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="98" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",M2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="189" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",M2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="duplicateValues" dxfId="33" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="duplicateValues" dxfId="32" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B21">
-    <cfRule type="duplicateValues" dxfId="31" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B11">
-    <cfRule type="duplicateValues" dxfId="30" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="29" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="27" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K21">
-    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L21">
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L5">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L10">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:L15">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L20">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K21">
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Complete">
+  <conditionalFormatting sqref="K2:N21">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L21">
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L2)))</formula>
+  <conditionalFormatting sqref="M2:N21">
+    <cfRule type="containsText" dxfId="8" priority="99" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L2)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="100" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="189" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -7036,187 +6419,187 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="1.36328125" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="9" max="9" width="15.08984375" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="202" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B1" s="207" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="208" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="203" t="s">
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="209" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="210" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="210"/>
+      <c r="L4" s="210"/>
+    </row>
+    <row r="5" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="160" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="162"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="213" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="211" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="211" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="211" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="211" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="211" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="211" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="211" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="211" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="215" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="214"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="216"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="158">
+        <v>1</v>
+      </c>
+      <c r="C8" s="175" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="204" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-    </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="205" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
-    </row>
-    <row r="5" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="161" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="163"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="198" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="196" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="196" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="196" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="196" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="196" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="196" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" s="196" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="196" t="s">
-        <v>123</v>
-      </c>
-      <c r="K6" s="200" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="199"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="201"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="159">
-        <v>1</v>
-      </c>
-      <c r="C8" s="219" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="220">
+      <c r="D8" s="176">
         <v>0.48</v>
       </c>
-      <c r="E8" s="160" t="s">
+      <c r="E8" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="160">
-        <v>0</v>
-      </c>
-      <c r="G8" s="221">
+      <c r="F8" s="159">
+        <v>0</v>
+      </c>
+      <c r="G8" s="177">
         <f>H8-2</f>
         <v>45960</v>
       </c>
-      <c r="H8" s="222">
+      <c r="H8" s="178">
         <v>45962</v>
       </c>
-      <c r="I8" s="221">
+      <c r="I8" s="177">
         <v>45964</v>
       </c>
-      <c r="J8" s="221">
+      <c r="J8" s="177">
         <v>45966</v>
       </c>
-      <c r="K8" s="194" t="s">
-        <v>173</v>
-      </c>
-      <c r="L8" s="146"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="153">
+      <c r="K8" s="217" t="s">
+        <v>172</v>
+      </c>
+      <c r="L8" s="145"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="152">
         <v>2</v>
       </c>
-      <c r="C9" s="167" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="218">
+      <c r="C9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="174">
         <v>4.4800000000000004</v>
       </c>
       <c r="E9" s="128" t="s">
@@ -7228,7 +6611,7 @@
       <c r="G9" s="127">
         <v>45977</v>
       </c>
-      <c r="H9" s="213">
+      <c r="H9" s="169">
         <v>45966</v>
       </c>
       <c r="I9" s="127">
@@ -7237,17 +6620,17 @@
       <c r="J9" s="127">
         <v>45976</v>
       </c>
-      <c r="K9" s="195"/>
-      <c r="L9" s="146"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="153">
+      <c r="K9" s="218"/>
+      <c r="L9" s="145"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="152">
         <v>3</v>
       </c>
-      <c r="C10" s="167" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="218">
+      <c r="C10" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="174">
         <v>1.98</v>
       </c>
       <c r="E10" s="128" t="s">
@@ -7259,7 +6642,7 @@
       <c r="G10" s="127">
         <v>45984</v>
       </c>
-      <c r="H10" s="213">
+      <c r="H10" s="169">
         <v>45976</v>
       </c>
       <c r="I10" s="127">
@@ -7268,20 +6651,20 @@
       <c r="J10" s="127">
         <v>45984</v>
       </c>
-      <c r="K10" s="195"/>
-      <c r="L10" s="146"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="152">
+      <c r="K10" s="218"/>
+      <c r="L10" s="145"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="151">
         <v>4</v>
       </c>
-      <c r="C11" s="167" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="218">
+      <c r="C11" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="174">
         <v>2.46</v>
       </c>
-      <c r="E11" s="154" t="s">
+      <c r="E11" s="153" t="s">
         <v>124</v>
       </c>
       <c r="F11" s="8">
@@ -7290,7 +6673,7 @@
       <c r="G11" s="127">
         <v>45971</v>
       </c>
-      <c r="H11" s="213">
+      <c r="H11" s="169">
         <v>45984</v>
       </c>
       <c r="I11" s="127">
@@ -7299,42 +6682,43 @@
       <c r="J11" s="127">
         <v>45993</v>
       </c>
-      <c r="K11" s="195"/>
-    </row>
-    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="155"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="223"/>
-      <c r="E12" s="157"/>
+      <c r="K11" s="218"/>
+    </row>
+    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="154"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="156"/>
       <c r="F12" s="92"/>
       <c r="G12" s="92"/>
       <c r="H12" s="92"/>
       <c r="I12" s="92"/>
       <c r="J12" s="92"/>
-      <c r="K12" s="158"/>
-    </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="148" t="s">
+      <c r="K12" s="157"/>
+    </row>
+    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="147" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="149"/>
-      <c r="D13" s="224">
+      <c r="C13" s="148"/>
+      <c r="D13" s="180">
         <f>SUM(D8:D12)</f>
         <v>9.4000000000000021</v>
       </c>
-      <c r="E13" s="150"/>
-      <c r="F13" s="151">
+      <c r="E13" s="149"/>
+      <c r="F13" s="150">
         <f>SUM(F8:F12)</f>
         <v>20</v>
       </c>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="147"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K8:K11"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
@@ -7349,24 +6733,21 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H11">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",H8)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H11">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7375,7 +6756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7388,50 +6769,50 @@
       <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="3.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" style="1" customWidth="1"/>
-    <col min="16" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="3.109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.44140625" style="1" customWidth="1"/>
-    <col min="25" max="26" width="10.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.44140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="17.33203125" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="3.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.6328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.90625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.08984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.08984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" style="1" customWidth="1"/>
+    <col min="16" max="20" width="8.6328125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.08984375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6328125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.54296875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.453125" style="1" customWidth="1"/>
+    <col min="25" max="26" width="10.6328125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.453125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="17.36328125" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="38"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
@@ -7448,7 +6829,7 @@
         <v>905812</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -7458,7 +6839,7 @@
       </c>
       <c r="O5" s="118"/>
     </row>
-    <row r="6" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="D6" s="2" t="s">
         <v>88</v>
@@ -7467,7 +6848,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -7477,11 +6858,11 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -7503,13 +6884,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
@@ -7533,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="D12" s="2" t="s">
         <v>25</v>
@@ -7555,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="D13" s="2" t="s">
         <v>26</v>
@@ -7577,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="D14" s="2" t="s">
         <v>27</v>
@@ -7599,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="D15" s="28" t="s">
         <v>28</v>
@@ -7621,7 +7002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="D16" s="27" t="s">
         <v>29</v>
@@ -7643,125 +7024,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="171" t="s">
+    <row r="18" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="199" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="168" t="s">
+      <c r="C18" s="195" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="168" t="s">
+      <c r="D18" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="171" t="s">
+      <c r="E18" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="183" t="s">
+      <c r="F18" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="176" t="s">
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="168" t="s">
+      <c r="M18" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="177" t="s">
+      <c r="O18" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="P18" s="178"/>
-      <c r="Q18" s="178"/>
-      <c r="R18" s="178"/>
-      <c r="S18" s="178"/>
-      <c r="T18" s="179"/>
-      <c r="V18" s="177" t="s">
+      <c r="P18" s="191"/>
+      <c r="Q18" s="191"/>
+      <c r="R18" s="191"/>
+      <c r="S18" s="191"/>
+      <c r="T18" s="192"/>
+      <c r="V18" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="W18" s="178"/>
-      <c r="X18" s="178"/>
-      <c r="Y18" s="178"/>
-      <c r="Z18" s="178"/>
-      <c r="AA18" s="179"/>
-      <c r="AB18" s="180" t="s">
+      <c r="W18" s="191"/>
+      <c r="X18" s="191"/>
+      <c r="Y18" s="191"/>
+      <c r="Z18" s="191"/>
+      <c r="AA18" s="192"/>
+      <c r="AB18" s="193" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="172"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="207" t="s">
+    <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="200"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="208" t="s">
+      <c r="G19" s="220" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="209"/>
-      <c r="I19" s="208" t="s">
+      <c r="H19" s="221"/>
+      <c r="I19" s="220" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="209"/>
-      <c r="K19" s="176"/>
-      <c r="M19" s="182"/>
-      <c r="O19" s="174" t="s">
+      <c r="J19" s="221"/>
+      <c r="K19" s="189"/>
+      <c r="M19" s="196"/>
+      <c r="O19" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="174" t="s">
+      <c r="P19" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="174" t="s">
+      <c r="Q19" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="R19" s="174" t="s">
+      <c r="R19" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="S19" s="174" t="s">
+      <c r="S19" s="187" t="s">
         <v>28</v>
       </c>
       <c r="T19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="174" t="s">
+      <c r="V19" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="W19" s="174" t="s">
+      <c r="W19" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="X19" s="174" t="s">
+      <c r="X19" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="Y19" s="174" t="s">
+      <c r="Y19" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="Z19" s="174" t="s">
+      <c r="Z19" s="187" t="s">
         <v>28</v>
       </c>
       <c r="AA19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AB19" s="181"/>
-    </row>
-    <row r="20" spans="1:28" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="172"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="207"/>
+      <c r="AB19" s="194"/>
+    </row>
+    <row r="20" spans="1:28" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="200"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="219"/>
       <c r="G20" s="93" t="s">
         <v>10</v>
       </c>
@@ -7780,17 +7161,17 @@
       <c r="M20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="175"/>
-      <c r="P20" s="175"/>
-      <c r="Q20" s="175"/>
-      <c r="R20" s="175"/>
-      <c r="S20" s="175"/>
+      <c r="O20" s="188"/>
+      <c r="P20" s="188"/>
+      <c r="Q20" s="188"/>
+      <c r="R20" s="188"/>
+      <c r="S20" s="188"/>
       <c r="T20" s="19"/>
-      <c r="V20" s="175"/>
-      <c r="W20" s="175"/>
-      <c r="X20" s="175"/>
-      <c r="Y20" s="175"/>
-      <c r="Z20" s="175"/>
+      <c r="V20" s="188"/>
+      <c r="W20" s="188"/>
+      <c r="X20" s="188"/>
+      <c r="Y20" s="188"/>
+      <c r="Z20" s="188"/>
       <c r="AA20" s="19" t="s">
         <v>20</v>
       </c>
@@ -7798,7 +7179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>1</v>
       </c>
@@ -7811,7 +7192,7 @@
       <c r="D21" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="206" t="s">
+      <c r="E21" s="222" t="s">
         <v>98</v>
       </c>
       <c r="F21" s="113">
@@ -7872,7 +7253,7 @@
         <v>3270887.1320000002</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2</v>
       </c>
@@ -7885,7 +7266,7 @@
       <c r="D22" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="206"/>
+      <c r="E22" s="222"/>
       <c r="F22" s="113">
         <v>45913</v>
       </c>
@@ -7944,7 +7325,7 @@
         <v>3550783.04</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>3</v>
       </c>
@@ -7957,7 +7338,7 @@
       <c r="D23" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="206"/>
+      <c r="E23" s="222"/>
       <c r="F23" s="113">
         <v>45910</v>
       </c>
@@ -8016,7 +7397,7 @@
         <v>253627.36000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>4</v>
       </c>
@@ -8029,7 +7410,7 @@
       <c r="D24" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="206"/>
+      <c r="E24" s="222"/>
       <c r="F24" s="113">
         <v>45927</v>
       </c>
@@ -8088,7 +7469,7 @@
         <v>283519.15600000002</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>5</v>
       </c>
@@ -8101,7 +7482,7 @@
       <c r="D25" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="206"/>
+      <c r="E25" s="222"/>
       <c r="F25" s="113">
         <v>45915</v>
       </c>
@@ -8160,7 +7541,7 @@
         <v>288954.02799999999</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>6</v>
       </c>
@@ -8234,7 +7615,7 @@
         <v>4491015.8959999997</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>7</v>
       </c>
@@ -8306,7 +7687,7 @@
         <v>1454734.0720000002</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>8</v>
       </c>
@@ -8378,7 +7759,7 @@
         <v>292577.27600000001</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>9</v>
       </c>
@@ -8450,7 +7831,7 @@
         <v>4481051.9639999997</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>10</v>
       </c>
@@ -8522,7 +7903,7 @@
         <v>2490983</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>11</v>
       </c>
@@ -8594,7 +7975,7 @@
         <v>244569.24000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>12</v>
       </c>
@@ -8666,7 +8047,7 @@
         <v>623198.65599999996</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
         <v>13</v>
       </c>
@@ -8722,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="124">
@@ -8796,6 +8177,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:H19"/>
@@ -8809,21 +8202,9 @@
     <mergeCell ref="Q19:Q20"/>
     <mergeCell ref="R19:R20"/>
     <mergeCell ref="S19:S20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="V19:V20"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:C27">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="4DT6">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="4DT6">
       <formula>NOT(ISERROR(SEARCH("4DT6",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
